--- a/Tesoreria IASD/FOLLETOS.xlsx
+++ b/Tesoreria IASD/FOLLETOS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>2do trimestre</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Ayuda a Yolimar</t>
+  </si>
+  <si>
+    <t>Marisol Gonzales</t>
   </si>
 </sst>
 </file>
@@ -553,9 +556,9 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C20" sqref="C20"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +710,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B22" si="0">I4-H4+P4-O4+U4-T4</f>
-        <v>434</v>
+        <v>634</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -748,7 +751,10 @@
         <f t="shared" ref="T4:T23" si="3">$Q$3*Q4+$R$3*R4+$S$3*S4</f>
         <v>600</v>
       </c>
-      <c r="U4" s="6"/>
+      <c r="U4" s="6">
+        <f>200</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -756,7 +762,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>-1740</v>
+        <v>-740</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -803,7 +809,10 @@
         <f t="shared" si="3"/>
         <v>2870</v>
       </c>
-      <c r="U5" s="6"/>
+      <c r="U5" s="6">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -811,7 +820,7 @@
       </c>
       <c r="B6">
         <f>I6-H6+P6-O6+U6-T6+B26</f>
-        <v>-566</v>
+        <v>-416</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -851,7 +860,10 @@
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="6">
+        <f>50+100</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -957,7 +969,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>-66</v>
+        <v>1734</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -998,7 +1010,10 @@
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="U9" s="6"/>
+      <c r="U9" s="6">
+        <f>800+1000</f>
+        <v>1800</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1055,7 +1070,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>-3209.5</v>
+        <v>-2109.5</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1102,7 +1117,10 @@
         <f t="shared" si="3"/>
         <v>2170</v>
       </c>
-      <c r="U11" s="6"/>
+      <c r="U11" s="6">
+        <f>600+200+300</f>
+        <v>1100</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1110,7 +1128,7 @@
       </c>
       <c r="B12">
         <f>I12-H12+P12-O12+U12-T12-B26-B27-B28</f>
-        <v>988</v>
+        <v>3088</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1158,8 +1176,8 @@
         <v>2770</v>
       </c>
       <c r="U12" s="6">
-        <f>500</f>
-        <v>500</v>
+        <f>500+600+800+500</f>
+        <v>2400</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1478,14 +1496,18 @@
       <c r="P19" s="6">
         <v>500</v>
       </c>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="6"/>
+        <v>600</v>
+      </c>
+      <c r="U19" s="6">
+        <v>600</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1493,7 +1515,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>-600</v>
+        <v>600</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -1524,7 +1546,10 @@
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="U20" s="6"/>
+      <c r="U20" s="6">
+        <f>600+200+200+200</f>
+        <v>1200</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1563,9 +1588,15 @@
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="U21" s="6"/>
+      <c r="U21" s="6">
+        <f>200</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
       <c r="B22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1590,14 +1621,18 @@
         <v>0</v>
       </c>
       <c r="P22" s="6"/>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="6"/>
+        <v>600</v>
+      </c>
+      <c r="U22" s="6">
+        <v>600</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
@@ -1632,7 +1667,7 @@
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f>SUM(B4:B22)</f>
-        <v>-9427.5</v>
+        <v>-1877.5</v>
       </c>
       <c r="C24" s="1">
         <f>SUM(C4:C22)</f>
@@ -1656,7 +1691,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="1">
         <f>SUM(Q4:Q22)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1770,7 +1805,7 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
